--- a/resources/url_health_chk.xlsx
+++ b/resources/url_health_chk.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmathpal/Documents/JavaProjects/LinkHealthChecker/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB417A-DAD0-2845-880F-FE58281E7BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A4DE1D-CF2D-C443-9B0B-5492E8E772F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{DF27DC48-3BB2-D148-8A4B-6507B5D19019}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
   <si>
     <t>Parent URL</t>
   </si>
@@ -922,13 +922,142 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t>200:OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.asu.edu/accessibility/200
+https://www.asu.edu/200
+https://www.asu.edu/200
+https://universitycollege.asu.edu/200
+https://thunderbird.asu.edu/200
+https://corporate.asu.edu/skysong200
+https://www.hlcommission.org/200
+https://provost.asu.edu/accreditation200
+https://www.nc-sara.org/200
+https://www.asu.edu/rankings200
+https://my.asu.edu/200
+https://www.asu.edu/copyright/200
+https://www.asu.edu/accessibility/200
+https://www.asu.edu/privacy/200
+https://www.asu.edu/tou/200
+https://www.asu.edu/asujobs200
+https://www.asu.edu/emergency/200
+https://contact.asu.edu/200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.asu.edu/accessibility/200
+https://www.asu.edu/200
+https://www.asu.edu/200
+https://universitycollege.asu.edu/200
+https://thunderbird.asu.edu/200
+https://corporate.asu.edu/skysong200
+https://www.asu.edu/rankings200
+https://www.asu.edu/rankings200
+https://my.asu.edu/200
+https://www.asu.edu/copyright/200
+https://www.asu.edu/accessibility/200
+https://www.asu.edu/privacy/200
+https://www.asu.edu/tou/200
+https://www.asu.edu/asujobs200
+https://www.asu.edu/emergency/200
+https://contact.asu.edu/200
+</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.asu.edu/200
+https://thunderbird.asu.edu/200
+https://corporate.asu.edu/200
+https://asuonline.asu.edu/200
+https://www.asu.edu/privacy/200
+https://www.asu.edu/privacy/200
+https://asuonline.asu.edu/web-analytics-privacy-2/200
+https://students.asu.edu/third-party-sponsorships200
+https://asuonline.asu.edu/admission/military/200
+https://www.asu.edu/privacy/200
+https://www.asu.edu/privacy/200
+https://asuonline.asu.edu/web-analytics-privacy-2/200
+https://asuonline.asu.edu/online-degree-programs/undergraduate/200
+https://asuonline.asu.edu/online-degree-programs/graduate/200
+https://asuonline.asu.edu/online-degree-programs/certificates/200
+https://asuonline.asu.edu/admission/non-degree/200
+https://asuonline.asu.edu/what-it-costs/200
+https://asuonline.asu.edu/what-it-costs/financial-aid/200
+https://asuonline.asu.edu/what-it-costs/scholarship-opportunities/200
+https://asuonline.asu.edu/admission/freshman/200
+https://asuonline.asu.edu/admission/transfer/200
+https://starbucks.asu.edu/200
+https://asuonline.asu.edu/admission/home-school/200
+https://asuonline.asu.edu/admission/international/200
+https://asuonline.asu.edu/admission/graduate/200
+https://asuonline.asu.edu/admission/military/200
+https://asuonline.asu.edu/admission/non-degree/200
+https://asuonline.asu.edu/future-student/what-sun-devils-say/200
+https://asuonline.asu.edu/future-student/course-experience/200
+https://asuonline.asu.edu/future-student/support/200
+https://asuonline.asu.edu/future-student/community/200
+https://asuonline.asu.edu/future-student/graduation-beyond/200
+https://currentstudent.asuonline.asu.edu/200
+https://asuonline.asu.edu/about-us/contact-us/200
+https://asuonline.asu.edu/about-us/accreditation/200
+https://asuonline.asu.edu/newsroom/current-students/200
+https://asuonline.asu.edu/newsroom/leading-educators/200
+https://asuonline.asu.edu/newsroom/online-learning-tips/200
+https://asuonline.asu.edu/newsroom/sun-devil-life/200
+https://asuonline.asu.edu/online-degree-programs/undergraduate/200
+https://asuonline.asu.edu/online-degree-programs/graduate/200
+https://asuonline.asu.edu/online-degree-programs/certificates/200
+https://asuonline.asu.edu/admission/non-degree/200
+https://asuonline.asu.edu/what-it-costs/200
+https://asuonline.asu.edu/what-it-costs/financial-aid/200
+https://asuonline.asu.edu/what-it-costs/scholarship-opportunities/200
+https://asuonline.asu.edu/admission/freshman/200
+https://asuonline.asu.edu/admission/transfer/200
+https://starbucks.asu.edu/200
+https://asuonline.asu.edu/admission/home-school/200
+https://asuonline.asu.edu/admission/international/200
+https://asuonline.asu.edu/admission/graduate/200
+https://asuonline.asu.edu/admission/military/200
+https://asuonline.asu.edu/admission/non-degree/200
+https://asuonline.asu.edu/future-student/what-sun-devils-say/200
+https://asuonline.asu.edu/future-student/course-experience/200
+https://asuonline.asu.edu/future-student/support/200
+https://asuonline.asu.edu/future-student/community/200
+https://asuonline.asu.edu/future-student/graduation-beyond/200
+https://currentstudent.asuonline.asu.edu/200
+https://asuonline.asu.edu/about-us/contact-us/200
+https://asuonline.asu.edu/about-us/accreditation/200
+https://asuonline.asu.edu/newsroom/current-students/200
+https://asuonline.asu.edu/newsroom/leading-educators/200
+https://asuonline.asu.edu/newsroom/online-learning-tips/200
+https://asuonline.asu.edu/newsroom/sun-devil-life/200
+https://www.asu.edu/rankings200
+https://www.asu.edu/rankings200
+https://www.asu.edu/copyright/200
+https://www.asu.edu/accessibility/200
+https://www.asu.edu/privacy/200
+https://www.asu.edu/tou/200
+https://www.asu.edu/asujobs200
+https://www.asu.edu/emergency/200
+https://www.asu.edu/contactasu/200
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -995,11 +1124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1318,17 +1450,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="127.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="127.33203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.5" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.1640625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,44 +1483,44 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>295</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1396,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>295</v>
@@ -1411,32 +1543,32 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>295</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{04B29999-FF6E-404E-A4F8-E39B2C1142E2}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{97C79676-25E1-6A45-8CA2-845B5CC6D2E4}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{442B122A-EA50-1245-AB41-B279F161FC97}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{06380934-9E12-6E4D-AC11-08952469BF15}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{06380934-9E12-6E4D-AC11-08952469BF15}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{26985C23-9F74-BE47-AD01-A6D8E7261409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1447,12 +1579,12 @@
   <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="127.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="127.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
